--- a/output/statistics/trend_data.xlsx
+++ b/output/statistics/trend_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0881881a0a4a5542/Documenten/GitHub/Crypto_Forecasting/data/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Large Projects\timeseries-volatility-influence\output\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{EDB753E8-543D-414A-B176-5926AA43755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AEC9E99-5D44-421A-AF35-33113F9E078B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C4DCB-F4E2-4895-B38F-4802D9EE83A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5950EFE-4627-4A20-BE93-85AE665FEA52}"/>
+    <workbookView xWindow="1692" yWindow="6888" windowWidth="28512" windowHeight="9768" xr2:uid="{B5950EFE-4627-4A20-BE93-85AE665FEA52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Hamed Rao</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Trend Test</t>
   </si>
 </sst>
 </file>
@@ -2663,29 +2663,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB321EC4-917A-4D57-A5FC-2A88385E16D4}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>44</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>39</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>26</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2741,21 +2741,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>71</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>78</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>78</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="24" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
